--- a/linelist_FATE_raw.xlsx
+++ b/linelist_FATE_raw.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\edvtempfs.krhs.hbg.zsanbw.de\homes$\10086038\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alena\Documents\Digital Health GitHub Projects\FATE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5F99B1-F598-4ECF-88B2-EC10F37FC7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -21,12 +22,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Milena Braun</author>
   </authors>
   <commentList>
-    <comment ref="N27" authorId="0" shapeId="0">
+    <comment ref="N27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="281">
   <si>
     <t>FATE Patientenevaluation</t>
   </si>
@@ -886,12 +887,24 @@
   </si>
   <si>
     <t>Auswertung (deskriptiv)</t>
+  </si>
+  <si>
+    <t>correct</t>
+  </si>
+  <si>
+    <t>false neg</t>
+  </si>
+  <si>
+    <t>false pos</t>
+  </si>
+  <si>
+    <t>error_type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -968,7 +981,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1108,6 +1121,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1163,16 +1196,12 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1188,9 +1217,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1228,9 +1257,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1265,7 +1294,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1300,7 +1329,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1473,37 +1502,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P112"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="M11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="2"/>
-    <col min="2" max="2" width="35.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.42578125" style="1"/>
-    <col min="7" max="7" width="11.42578125" style="18"/>
-    <col min="8" max="8" width="17.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="43.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="59.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="70.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="32.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="2"/>
+    <col min="2" max="2" width="35.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.44140625" style="1"/>
+    <col min="7" max="7" width="11.44140625" style="18"/>
+    <col min="8" max="8" width="17.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="43.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="59.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="70.88671875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="32.5546875" style="2" customWidth="1"/>
     <col min="14" max="14" width="9" style="2" customWidth="1"/>
-    <col min="15" max="15" width="113.5703125" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="2"/>
+    <col min="15" max="15" width="113.5546875" style="2" customWidth="1"/>
+    <col min="16" max="17" width="9.33203125" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -1546,8 +1576,14 @@
       <c r="O4" s="3" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P4" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1590,11 +1626,15 @@
       <c r="O5" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1637,11 +1677,15 @@
       <c r="O6" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1684,11 +1728,15 @@
       <c r="O7" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1731,11 +1779,15 @@
       <c r="O8" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>9</v>
       </c>
@@ -1778,11 +1830,15 @@
       <c r="O9" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>10</v>
       </c>
@@ -1825,11 +1881,15 @@
       <c r="O10" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>11</v>
       </c>
@@ -1872,11 +1932,15 @@
       <c r="O11" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>15</v>
       </c>
@@ -1919,11 +1983,17 @@
       <c r="O12" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="R12" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>17</v>
       </c>
@@ -1969,11 +2039,15 @@
       <c r="O13" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P13" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>18</v>
       </c>
@@ -2019,11 +2093,15 @@
       <c r="O14" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>22</v>
       </c>
@@ -2069,11 +2147,15 @@
       <c r="O15" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>27</v>
       </c>
@@ -2119,11 +2201,17 @@
       <c r="O16" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P16" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="R16" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>28</v>
       </c>
@@ -2169,11 +2257,15 @@
       <c r="O17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="3">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>29</v>
       </c>
@@ -2219,11 +2311,17 @@
       <c r="O18" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="R18" s="3">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>30</v>
       </c>
@@ -2269,11 +2367,17 @@
       <c r="O19" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="P19" s="3">
+      <c r="P19" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="R19" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>33</v>
       </c>
@@ -2319,11 +2423,17 @@
       <c r="O20" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="R20" s="3">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>34</v>
       </c>
@@ -2369,11 +2479,17 @@
       <c r="O21" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="R21" s="3">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>37</v>
       </c>
@@ -2419,11 +2535,15 @@
       <c r="O22" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="3">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>38</v>
       </c>
@@ -2469,11 +2589,17 @@
       <c r="O23" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P23" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="R23" s="3">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>42</v>
       </c>
@@ -2516,11 +2642,17 @@
       <c r="O24" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="R24" s="3">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>43</v>
       </c>
@@ -2563,11 +2695,15 @@
       <c r="O25" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="P25" s="3">
+      <c r="P25" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="3">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>44</v>
       </c>
@@ -2613,11 +2749,15 @@
       <c r="O26" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="3">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>47</v>
       </c>
@@ -2660,11 +2800,17 @@
       <c r="O27" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P27" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="R27" s="3">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>52</v>
       </c>
@@ -2707,11 +2853,15 @@
       <c r="O28" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="P28" s="3">
+      <c r="P28" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="3">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>54</v>
       </c>
@@ -2757,11 +2907,17 @@
       <c r="O29" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="R29" s="3">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>56</v>
       </c>
@@ -2807,11 +2963,15 @@
       <c r="O30" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="P30" s="3">
+      <c r="P30" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="3">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>57</v>
       </c>
@@ -2857,11 +3017,15 @@
       <c r="O31" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="P31" s="3">
+      <c r="P31" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="3">
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>58</v>
       </c>
@@ -2907,11 +3071,15 @@
       <c r="O32" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="3">
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>60</v>
       </c>
@@ -2957,11 +3125,15 @@
       <c r="O33" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="P33" s="3">
+      <c r="P33" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>62</v>
       </c>
@@ -3007,11 +3179,15 @@
       <c r="O34" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="P34" s="3">
+      <c r="P34" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="3">
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>67</v>
       </c>
@@ -3057,11 +3233,15 @@
       <c r="O35" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="P35" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="3">
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>72</v>
       </c>
@@ -3107,11 +3287,15 @@
       <c r="O36" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="P36" s="3">
+      <c r="P36" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="3">
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>74</v>
       </c>
@@ -3154,11 +3338,17 @@
       <c r="O37" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="P37" s="3">
+      <c r="P37" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="R37" s="3">
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>77</v>
       </c>
@@ -3204,11 +3394,15 @@
       <c r="O38" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="P38" s="3">
+      <c r="P38" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="3">
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>80</v>
       </c>
@@ -3254,11 +3448,15 @@
       <c r="O39" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="P39" s="3">
+      <c r="P39" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="3">
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>81</v>
       </c>
@@ -3304,11 +3502,15 @@
       <c r="O40" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="P40" s="3">
+      <c r="P40" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="3">
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>82</v>
       </c>
@@ -3354,11 +3556,15 @@
       <c r="O41" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="P41" s="3">
+      <c r="P41" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="3">
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>85</v>
       </c>
@@ -3404,11 +3610,15 @@
       <c r="O42" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="P42" s="3">
+      <c r="P42" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="15"/>
+      <c r="R42" s="3">
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>87</v>
       </c>
@@ -3454,11 +3664,17 @@
       <c r="O43" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="P43" s="3">
+      <c r="P43" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="R43" s="3">
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>94</v>
       </c>
@@ -3504,11 +3720,15 @@
       <c r="O44" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="P44" s="3">
+      <c r="P44" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="15"/>
+      <c r="R44" s="3">
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>95</v>
       </c>
@@ -3522,7 +3742,7 @@
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
     </row>
-    <row r="46" spans="1:16" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <v>96</v>
       </c>
@@ -3545,8 +3765,10 @@
         <v>229</v>
       </c>
       <c r="O46" s="9"/>
-    </row>
-    <row r="47" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+    </row>
+    <row r="47" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>97</v>
       </c>
@@ -3569,9 +3791,11 @@
       <c r="O47" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="P47" s="8"/>
-    </row>
-    <row r="48" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P47" s="23"/>
+      <c r="Q47" s="23"/>
+      <c r="R47" s="8"/>
+    </row>
+    <row r="48" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>98</v>
       </c>
@@ -3594,9 +3818,11 @@
       <c r="O48" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="P48" s="8"/>
-    </row>
-    <row r="49" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P48" s="29"/>
+      <c r="Q48" s="29"/>
+      <c r="R48" s="8"/>
+    </row>
+    <row r="49" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>99</v>
       </c>
@@ -3621,9 +3847,11 @@
       <c r="O49" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="P49" s="8"/>
-    </row>
-    <row r="50" spans="1:16" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P49" s="29"/>
+      <c r="Q49" s="29"/>
+      <c r="R49" s="8"/>
+    </row>
+    <row r="50" spans="1:18" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>100</v>
       </c>
@@ -3646,9 +3874,11 @@
       <c r="O50" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="P50" s="8"/>
-    </row>
-    <row r="51" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P50" s="30"/>
+      <c r="Q50" s="30"/>
+      <c r="R50" s="8"/>
+    </row>
+    <row r="51" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>101</v>
       </c>
@@ -3666,38 +3896,40 @@
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
       <c r="O51" s="10"/>
-    </row>
-    <row r="52" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+    </row>
+    <row r="52" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
       <c r="D52" s="22"/>
       <c r="E52" s="26"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
       <c r="K52" s="21"/>
       <c r="L52" s="6"/>
     </row>
-    <row r="53" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
-      <c r="B53" s="30" t="s">
+      <c r="B53" s="28" t="s">
         <v>276</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
       <c r="K53" s="21"/>
       <c r="L53" s="6"/>
     </row>
-    <row r="54" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="2" t="s">
         <v>236</v>
@@ -3705,29 +3937,29 @@
       <c r="C54" s="2"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
       <c r="K54" s="21"/>
       <c r="L54" s="6"/>
     </row>
-    <row r="55" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="28"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
       <c r="K55" s="21"/>
       <c r="L55" s="6"/>
     </row>
-    <row r="56" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
         <v>237</v>
@@ -3737,15 +3969,15 @@
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="28"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
       <c r="K56" s="21"/>
       <c r="L56" s="6"/>
     </row>
-    <row r="57" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="23" t="s">
         <v>238</v>
@@ -3753,15 +3985,15 @@
       <c r="C57" s="23"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="28"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
       <c r="K57" s="21"/>
       <c r="L57" s="6"/>
     </row>
-    <row r="58" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="2" t="s">
         <v>239</v>
@@ -3771,15 +4003,15 @@
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="28"/>
-      <c r="J58" s="28"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
       <c r="K58" s="21"/>
       <c r="L58" s="6"/>
     </row>
-    <row r="59" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="2" t="s">
         <v>240</v>
@@ -3789,29 +4021,29 @@
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="28"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
       <c r="K59" s="21"/>
       <c r="L59" s="6"/>
     </row>
-    <row r="60" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="28"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
       <c r="K60" s="21"/>
       <c r="L60" s="6"/>
     </row>
-    <row r="61" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="23" t="s">
         <v>241</v>
@@ -3819,15 +4051,15 @@
       <c r="C61" s="23"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="28"/>
-      <c r="J61" s="28"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
       <c r="K61" s="21"/>
       <c r="L61" s="6"/>
     </row>
-    <row r="62" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="2" t="s">
         <v>244</v>
@@ -3837,15 +4069,15 @@
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="28"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
       <c r="K62" s="21"/>
       <c r="L62" s="6"/>
     </row>
-    <row r="63" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="2" t="s">
         <v>242</v>
@@ -3855,15 +4087,15 @@
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="28"/>
-      <c r="J63" s="28"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
       <c r="K63" s="21"/>
       <c r="L63" s="6"/>
     </row>
-    <row r="64" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="2" t="s">
         <v>243</v>
@@ -3873,29 +4105,29 @@
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="29"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="28"/>
-      <c r="J64" s="28"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
       <c r="K64" s="21"/>
       <c r="L64" s="6"/>
     </row>
-    <row r="65" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="28"/>
-      <c r="J65" s="28"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
       <c r="K65" s="21"/>
       <c r="L65" s="6"/>
     </row>
-    <row r="66" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="23" t="s">
         <v>264</v>
@@ -3903,15 +4135,15 @@
       <c r="C66" s="23"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="28"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
       <c r="K66" s="21"/>
       <c r="L66" s="6"/>
     </row>
-    <row r="67" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="2" t="s">
         <v>233</v>
@@ -3921,15 +4153,15 @@
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="29"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
-      <c r="J67" s="28"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
       <c r="K67" s="21"/>
       <c r="L67" s="6"/>
     </row>
-    <row r="68" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="2" t="s">
         <v>234</v>
@@ -3939,15 +4171,15 @@
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="29"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="28"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
       <c r="K68" s="21"/>
       <c r="L68" s="6"/>
     </row>
-    <row r="69" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="2" t="s">
         <v>235</v>
@@ -3957,29 +4189,29 @@
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="29"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="28"/>
-      <c r="J69" s="28"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
       <c r="K69" s="21"/>
       <c r="L69" s="6"/>
     </row>
-    <row r="70" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="28"/>
-      <c r="J70" s="28"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
       <c r="K70" s="21"/>
       <c r="L70" s="6"/>
     </row>
-    <row r="71" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="23" t="s">
         <v>245</v>
@@ -3987,15 +4219,15 @@
       <c r="C71" s="23"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="29"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="28"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
       <c r="K71" s="21"/>
       <c r="L71" s="6"/>
     </row>
-    <row r="72" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="2" t="s">
         <v>255</v>
@@ -4005,16 +4237,16 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="28"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="29"/>
-      <c r="I72" s="28"/>
-      <c r="J72" s="28"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
       <c r="K72" s="21"/>
       <c r="L72" s="6"/>
       <c r="M72" s="6"/>
     </row>
-    <row r="73" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2" t="s">
         <v>256</v>
@@ -4024,16 +4256,16 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="29"/>
-      <c r="I73" s="28"/>
-      <c r="J73" s="28"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
       <c r="K73" s="21"/>
       <c r="L73" s="6"/>
       <c r="M73" s="6"/>
     </row>
-    <row r="74" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="2" t="s">
         <v>257</v>
@@ -4043,31 +4275,31 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="28"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="29"/>
-      <c r="I74" s="28"/>
-      <c r="J74" s="28"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
       <c r="K74" s="21"/>
       <c r="L74" s="6"/>
       <c r="M74" s="6"/>
     </row>
-    <row r="75" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="29"/>
-      <c r="I75" s="28"/>
-      <c r="J75" s="28"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
       <c r="K75" s="21"/>
       <c r="L75" s="6"/>
       <c r="M75" s="6"/>
     </row>
-    <row r="76" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="23" t="s">
         <v>254</v>
@@ -4075,15 +4307,15 @@
       <c r="C76" s="23"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="28"/>
-      <c r="G76" s="29"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="28"/>
-      <c r="J76" s="28"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
       <c r="K76" s="21"/>
       <c r="L76" s="6"/>
     </row>
-    <row r="77" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="2" t="s">
         <v>246</v>
@@ -4093,15 +4325,15 @@
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="29"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="28"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
       <c r="K77" s="21"/>
       <c r="L77" s="6"/>
     </row>
-    <row r="78" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2" t="s">
         <v>247</v>
@@ -4111,15 +4343,15 @@
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="29"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="28"/>
-      <c r="J78" s="28"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
       <c r="K78" s="21"/>
       <c r="L78" s="6"/>
     </row>
-    <row r="79" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" s="2" t="s">
         <v>248</v>
@@ -4129,29 +4361,29 @@
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="29"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="28"/>
-      <c r="J79" s="28"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
       <c r="K79" s="21"/>
       <c r="L79" s="6"/>
     </row>
-    <row r="80" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="29"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="28"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
       <c r="K80" s="21"/>
       <c r="L80" s="6"/>
     </row>
-    <row r="81" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="23" t="s">
         <v>274</v>
@@ -4159,15 +4391,15 @@
       <c r="C81" s="25"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="28"/>
-      <c r="G81" s="29"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="28"/>
-      <c r="J81" s="28"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
       <c r="K81" s="21"/>
       <c r="L81" s="6"/>
     </row>
-    <row r="82" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="2" t="s">
         <v>265</v>
@@ -4177,15 +4409,15 @@
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
-      <c r="F82" s="28"/>
-      <c r="G82" s="29"/>
-      <c r="H82" s="28"/>
-      <c r="I82" s="28"/>
-      <c r="J82" s="28"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
       <c r="K82" s="21"/>
       <c r="L82" s="6"/>
     </row>
-    <row r="83" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="2" t="s">
         <v>266</v>
@@ -4195,28 +4427,23 @@
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
-      <c r="F83" s="28"/>
-      <c r="G83" s="29"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="28"/>
-      <c r="J83" s="28"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
       <c r="K83" s="21"/>
       <c r="L83" s="6"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B84" s="2" t="s">
         <v>267</v>
       </c>
       <c r="C84" s="24">
         <v>9</v>
       </c>
-      <c r="F84" s="28"/>
-      <c r="G84" s="29"/>
-      <c r="H84" s="28"/>
-      <c r="I84" s="28"/>
-      <c r="J84" s="28"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B85" s="2" t="s">
         <v>268</v>
       </c>
@@ -4224,7 +4451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B87" s="2" t="s">
         <v>269</v>
       </c>
@@ -4232,7 +4459,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B88" s="2" t="s">
         <v>270</v>
       </c>
@@ -4240,12 +4467,12 @@
         <v>251</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C96" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="110" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C110" s="2" t="s">
         <v>21</v>
       </c>
@@ -4271,7 +4498,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C111" s="2" t="s">
         <v>24</v>
       </c>
@@ -4297,7 +4524,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="112" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C112" s="2" t="s">
         <v>28</v>
       </c>
@@ -4331,24 +4558,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/linelist_FATE_raw.xlsx
+++ b/linelist_FATE_raw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alena\Documents\Digital Health GitHub Projects\FATE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5F99B1-F598-4ECF-88B2-EC10F37FC7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCF8681-FC7A-400B-B5C7-3DDBBC014FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="282">
   <si>
     <t>FATE Patientenevaluation</t>
   </si>
@@ -223,12 +223,6 @@
     <t>keine /OP-Freigabe</t>
   </si>
   <si>
-    <t>Pahl, Eva (Ba)</t>
-  </si>
-  <si>
-    <t>Thomas, Reinhold (Ba)</t>
-  </si>
-  <si>
     <t>Exsikkose</t>
   </si>
   <si>
@@ -238,18 +232,9 @@
     <t>Übungspatient/SaZ-Gutachten</t>
   </si>
   <si>
-    <t>Möller, Edelbert (Gen)</t>
-  </si>
-  <si>
     <t>WV möglich</t>
   </si>
   <si>
-    <t>Rätz, Karsten (Gen)</t>
-  </si>
-  <si>
-    <t>Schmitz, Sascha (Gen)</t>
-  </si>
-  <si>
     <t>keine/OP-Freigabe</t>
   </si>
   <si>
@@ -265,9 +250,6 @@
     <t>peripher stationär / akute i.v. Medikation</t>
   </si>
   <si>
-    <t>Balzereit, Dr. Georg (Ben)</t>
-  </si>
-  <si>
     <t>Synkppe, AZ Reduktion</t>
   </si>
   <si>
@@ -280,18 +262,12 @@
     <t>peripher stationär / akute i.v. Medikation /neue Medikation</t>
   </si>
   <si>
-    <t>Kröger, Günther (Ben)</t>
-  </si>
-  <si>
     <t>kardial / Kreislauf</t>
   </si>
   <si>
     <t>peripher stationär / Volumenanpassung / Folgediagnostik</t>
   </si>
   <si>
-    <t>Gollasch, Celina (Ben)</t>
-  </si>
-  <si>
     <t>Herzinsuffizienz / TAA bei VHF</t>
   </si>
   <si>
@@ -310,12 +286,6 @@
     <t>Intensiv/Folgediagnostik</t>
   </si>
   <si>
-    <t>Brinke, Irmgard (Ben)</t>
-  </si>
-  <si>
-    <t>Becher, Erich (Ben)</t>
-  </si>
-  <si>
     <t>Volumenstatus</t>
   </si>
   <si>
@@ -325,9 +295,6 @@
     <t>Intensiv / Volumenanpassung</t>
   </si>
   <si>
-    <t>Behn, Holger (Le)</t>
-  </si>
-  <si>
     <t xml:space="preserve">ITS </t>
   </si>
   <si>
@@ -346,9 +313,6 @@
     <t>Übungspatient</t>
   </si>
   <si>
-    <t>Schönhaber, Maria (Le)</t>
-  </si>
-  <si>
     <t>LV-Hypertrophie/atriale Dil.</t>
   </si>
   <si>
@@ -364,12 +328,6 @@
     <t>hypertensive Entgleisung / VHF/ cor hypertensivum</t>
   </si>
   <si>
-    <t>Söffker, Roland (Le)</t>
-  </si>
-  <si>
-    <t>Krogmann, Ingrid (Le)</t>
-  </si>
-  <si>
     <t>Intensiv</t>
   </si>
   <si>
@@ -397,15 +355,6 @@
     <t>peripher stationär/TTE</t>
   </si>
   <si>
-    <t>Gottschalk, Rolf (Gen)</t>
-  </si>
-  <si>
-    <t>Meinske, Anita (gen)</t>
-  </si>
-  <si>
-    <t>Meyer, Ottomar (Ba)</t>
-  </si>
-  <si>
     <t>Herzinsuffizienz/Pleuraerguss</t>
   </si>
   <si>
@@ -418,9 +367,6 @@
     <t>peripher stationär/neue Medikationsanordnung als Dauermedikation</t>
   </si>
   <si>
-    <t>Wilde, Renate (Gen)</t>
-  </si>
-  <si>
     <t>Kruse, Gerhard (Le)</t>
   </si>
   <si>
@@ -433,12 +379,6 @@
     <t>Verlegung Normalstation</t>
   </si>
   <si>
-    <t>Rahaus, Wolfgang (Le) I</t>
-  </si>
-  <si>
-    <t>Rahaus, Wolfgang (Le) II</t>
-  </si>
-  <si>
     <t>Lungenarterienembolie</t>
   </si>
   <si>
@@ -454,27 +394,12 @@
     <t>Intensiv/akute iv Medikation</t>
   </si>
   <si>
-    <t>Mecker, Jürgen (Le)</t>
-  </si>
-  <si>
-    <t>Contreras, Edith</t>
-  </si>
-  <si>
     <t>hypertensives Lungenödem</t>
   </si>
   <si>
     <t>Intensiv/akute iv Medikation/ neue Medikation/Volumenanpassung/NIV</t>
   </si>
   <si>
-    <t>Mahns, Wolfgang (Le) II</t>
-  </si>
-  <si>
-    <t>Harke, Inge (Le)</t>
-  </si>
-  <si>
-    <t>Jürgensen, Silke (Gen)</t>
-  </si>
-  <si>
     <t>eingeschränkte LV- und RV-Funktion</t>
   </si>
   <si>
@@ -484,51 +409,27 @@
     <t>peripher stationär/ akute iv Medikation</t>
   </si>
   <si>
-    <t>Hartmann, Klaus-Dieter (Stu)</t>
-  </si>
-  <si>
     <t>biatriale Dilatation</t>
   </si>
   <si>
     <t>Unauffälliger befund</t>
   </si>
   <si>
-    <t>Gundlach, Gertrud (Stu)</t>
-  </si>
-  <si>
     <t>eingeschränkte LV-Funktion</t>
   </si>
   <si>
-    <t>Jantzen, Michael (Stu)</t>
-  </si>
-  <si>
-    <t>Kahrmann, Ingrid (Stu)</t>
-  </si>
-  <si>
     <t>peripher stationär/akute iv Medikation</t>
   </si>
   <si>
-    <t>Pommerenke, Peter (Ben)</t>
-  </si>
-  <si>
     <t>ballonierte Herzspitze</t>
   </si>
   <si>
-    <t>Hoheisel, Reiner (ben)</t>
-  </si>
-  <si>
     <t>andere</t>
   </si>
   <si>
     <t>V.a. Rheuma</t>
   </si>
   <si>
-    <t>Westphal, Herbert (Ben)</t>
-  </si>
-  <si>
-    <t>Eknigk, Lothar (Ben)</t>
-  </si>
-  <si>
     <t>pulmonal</t>
   </si>
   <si>
@@ -547,18 +448,6 @@
     <t>Stuhrberg</t>
   </si>
   <si>
-    <t>Fallinski, Andreas</t>
-  </si>
-  <si>
-    <t>Weiler, Marianne</t>
-  </si>
-  <si>
-    <t>Hameister, Frank</t>
-  </si>
-  <si>
-    <t>Meier, Uwe 05.12.37</t>
-  </si>
-  <si>
     <t>TTE im Verlauf erfolgt</t>
   </si>
   <si>
@@ -577,9 +466,6 @@
     <t>24h</t>
   </si>
   <si>
-    <t>Woltemath, Lieselotte</t>
-  </si>
-  <si>
     <t>RA- und RV-Dilatation, eingeschränkte RV-Funktion, hochgradige TI, VCI 29</t>
   </si>
   <si>
@@ -637,9 +523,6 @@
     <t>biatriale Dilatation, eingeschränkte LV-Funktion, VCI 23mm</t>
   </si>
   <si>
-    <t>Kahl, Karin (Gen)</t>
-  </si>
-  <si>
     <t>biatriale Dilatation, mittelgradig eingeschränkte EF, VCI 25mm</t>
   </si>
   <si>
@@ -899,6 +782,126 @@
   </si>
   <si>
     <t>error_type</t>
+  </si>
+  <si>
+    <t>Ra, Wo (Le) II</t>
+  </si>
+  <si>
+    <t>Ra, Wol (Le) I</t>
+  </si>
+  <si>
+    <t>Fa, An</t>
+  </si>
+  <si>
+    <t>Wo, Li</t>
+  </si>
+  <si>
+    <t>We, Ma</t>
+  </si>
+  <si>
+    <t>Ha, Fr</t>
+  </si>
+  <si>
+    <t>Me, Uw</t>
+  </si>
+  <si>
+    <t>Mö, Ed</t>
+  </si>
+  <si>
+    <t>Pa, Ev</t>
+  </si>
+  <si>
+    <t>Ek, Lo</t>
+  </si>
+  <si>
+    <t>Ho, Re</t>
+  </si>
+  <si>
+    <t>We, He</t>
+  </si>
+  <si>
+    <t>Po, Pe</t>
+  </si>
+  <si>
+    <t>Ka, In(Stu)</t>
+  </si>
+  <si>
+    <t>Ja, Mi (Stu)</t>
+  </si>
+  <si>
+    <t>Gu, Ge (Stu)</t>
+  </si>
+  <si>
+    <t>Ha, Kl (Stu)</t>
+  </si>
+  <si>
+    <t>Jü, Si (Gen)</t>
+  </si>
+  <si>
+    <t>Ha, In (Le)</t>
+  </si>
+  <si>
+    <t>Co, Ed</t>
+  </si>
+  <si>
+    <t>Me, Jü (Le)</t>
+  </si>
+  <si>
+    <t>Ma, Wo (Le) II</t>
+  </si>
+  <si>
+    <t>Th, Re (Ba)</t>
+  </si>
+  <si>
+    <t>Sc, Sa (Gen)</t>
+  </si>
+  <si>
+    <t>Rä, Ka (Gen)</t>
+  </si>
+  <si>
+    <t>Ba, Ge (Ben)</t>
+  </si>
+  <si>
+    <t>Kr, Gü (Ben)</t>
+  </si>
+  <si>
+    <t>Go, Ce (Ben)</t>
+  </si>
+  <si>
+    <t>Br, Ir (Ben)</t>
+  </si>
+  <si>
+    <t>Be, Er (Ben)</t>
+  </si>
+  <si>
+    <t>Be, Ho (Le)</t>
+  </si>
+  <si>
+    <t>Sc, Ma (Le)</t>
+  </si>
+  <si>
+    <t>Sö, Ro (Le)</t>
+  </si>
+  <si>
+    <t>Kr, In (Le)</t>
+  </si>
+  <si>
+    <t>Go, Ro (Gen)</t>
+  </si>
+  <si>
+    <t>Me, An (gen)</t>
+  </si>
+  <si>
+    <t>Me, Ot (Ba)</t>
+  </si>
+  <si>
+    <t>Ka, Ka (Gen)</t>
+  </si>
+  <si>
+    <t>Wi, Re (Gen)</t>
+  </si>
+  <si>
+    <t>Kr, Ge (Le)</t>
   </si>
 </sst>
 </file>
@@ -1505,8 +1508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1568,19 +1571,19 @@
         <v>16</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1588,7 +1591,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>163</v>
+        <v>244</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>11</v>
@@ -1618,13 +1621,13 @@
         <v>17</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="P5" s="15">
         <v>1</v>
@@ -1639,7 +1642,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>173</v>
+        <v>245</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>1</v>
@@ -1669,13 +1672,13 @@
         <v>17</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="P6" s="15">
         <v>1</v>
@@ -1690,7 +1693,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>164</v>
+        <v>246</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>1</v>
@@ -1720,13 +1723,13 @@
         <v>17</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="N7" s="15" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="O7" s="15" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="P7" s="15">
         <v>1</v>
@@ -1741,7 +1744,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>165</v>
+        <v>247</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>11</v>
@@ -1765,19 +1768,19 @@
         <v>43</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="O8" s="15" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="P8" s="15">
         <v>1</v>
@@ -1792,7 +1795,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>166</v>
+        <v>248</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>11</v>
@@ -1819,16 +1822,16 @@
         <v>54</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="N9" s="15" t="s">
-        <v>181</v>
+        <v>143</v>
       </c>
       <c r="O9" s="15" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="P9" s="15">
         <v>1</v>
@@ -1843,7 +1846,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>60</v>
+        <v>249</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>11</v>
@@ -1861,25 +1864,25 @@
         <v>53</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>33</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="N10" s="15" t="s">
-        <v>181</v>
+        <v>143</v>
       </c>
       <c r="O10" s="15" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="P10" s="15">
         <v>1</v>
@@ -1894,7 +1897,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>1</v>
@@ -1924,13 +1927,13 @@
         <v>17</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="N11" s="15" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="O11" s="15" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="P11" s="15">
         <v>1</v>
@@ -1945,7 +1948,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>56</v>
+        <v>264</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>11</v>
@@ -1975,19 +1978,19 @@
         <v>17</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="N12" s="15" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="O12" s="16" t="s">
-        <v>180</v>
+        <v>142</v>
       </c>
       <c r="P12" s="16">
         <v>0</v>
       </c>
       <c r="Q12" s="16" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="R12" s="3">
         <v>15</v>
@@ -2001,7 +2004,7 @@
         <v>43138</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>63</v>
+        <v>265</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>11</v>
@@ -2016,7 +2019,7 @@
         <v>52</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>26</v>
@@ -2025,16 +2028,16 @@
         <v>43</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>181</v>
+        <v>143</v>
       </c>
       <c r="O13" s="15" t="s">
         <v>26</v>
@@ -2055,7 +2058,7 @@
         <v>43138</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>62</v>
+        <v>266</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>11</v>
@@ -2079,19 +2082,19 @@
         <v>43</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>181</v>
+        <v>143</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="P14" s="15">
         <v>1</v>
@@ -2109,7 +2112,7 @@
         <v>43177</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>69</v>
+        <v>267</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>11</v>
@@ -2121,10 +2124,10 @@
         <v>5</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>26</v>
@@ -2133,19 +2136,19 @@
         <v>43</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="N15" s="15" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="P15" s="15">
         <v>1</v>
@@ -2163,7 +2166,7 @@
         <v>43154</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>74</v>
+        <v>268</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>11</v>
@@ -2181,31 +2184,31 @@
         <v>14</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="K16" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="L16" s="4" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="N16" s="16" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="O16" s="16" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="P16" s="16">
         <v>0</v>
       </c>
       <c r="Q16" s="16" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="R16" s="3">
         <v>27</v>
@@ -2219,7 +2222,7 @@
         <v>43155</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>1</v>
@@ -2234,7 +2237,7 @@
         <v>31</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>22</v>
@@ -2243,16 +2246,16 @@
         <v>43</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="O17" s="15" t="s">
         <v>26</v>
@@ -2273,7 +2276,7 @@
         <v>43166</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>84</v>
+        <v>270</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>1</v>
@@ -2285,37 +2288,37 @@
         <v>5</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="N18" s="15" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="O18" s="16" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="P18" s="16">
         <v>0</v>
       </c>
       <c r="Q18" s="16" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="R18" s="3">
         <v>29</v>
@@ -2329,7 +2332,7 @@
         <v>43165</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>85</v>
+        <v>271</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>11</v>
@@ -2344,25 +2347,25 @@
         <v>31</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="N19" s="16" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="O19" s="16" t="s">
         <v>26</v>
@@ -2371,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="16" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="R19" s="3">
         <v>30</v>
@@ -2385,7 +2388,7 @@
         <v>43179</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>89</v>
+        <v>272</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>11</v>
@@ -2394,40 +2397,40 @@
         <v>75</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G20" s="19" t="s">
         <v>31</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>187</v>
+        <v>149</v>
       </c>
       <c r="N20" s="15" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="O20" s="16" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="P20" s="16">
         <v>0</v>
       </c>
       <c r="Q20" s="16" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="R20" s="3">
         <v>33</v>
@@ -2441,7 +2444,7 @@
         <v>43174</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>96</v>
+        <v>273</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>1</v>
@@ -2450,40 +2453,40 @@
         <v>92</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G21" s="19" t="s">
         <v>52</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>187</v>
+        <v>149</v>
       </c>
       <c r="N21" s="15" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="O21" s="16" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="P21" s="16">
         <v>0</v>
       </c>
       <c r="Q21" s="16" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="R21" s="3">
         <v>34</v>
@@ -2497,7 +2500,7 @@
         <v>43149</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>102</v>
+        <v>274</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>11</v>
@@ -2506,7 +2509,7 @@
         <v>59</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G22" s="19" t="s">
         <v>31</v>
@@ -2515,25 +2518,25 @@
         <v>8</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="N22" s="15" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="O22" s="15" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="P22" s="15">
         <v>1</v>
@@ -2551,7 +2554,7 @@
         <v>43147</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>103</v>
+        <v>275</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>1</v>
@@ -2560,31 +2563,31 @@
         <v>79</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G23" s="19" t="s">
         <v>52</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="N23" s="16" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="O23" s="16" t="s">
         <v>26</v>
@@ -2593,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="Q23" s="16" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="R23" s="3">
         <v>38</v>
@@ -2604,7 +2607,7 @@
         <v>42</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>113</v>
+        <v>276</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>11</v>
@@ -2619,25 +2622,25 @@
         <v>31</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>48</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="N24" s="15" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="O24" s="16" t="s">
         <v>26</v>
@@ -2646,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="16" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="R24" s="3">
         <v>42</v>
@@ -2657,7 +2660,7 @@
         <v>43</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>114</v>
+        <v>277</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>1</v>
@@ -2669,31 +2672,31 @@
         <v>5</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>46</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="N25" s="15" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="O25" s="15" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="P25" s="15">
         <v>1</v>
@@ -2711,7 +2714,7 @@
         <v>43216</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>115</v>
+        <v>278</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>11</v>
@@ -2729,25 +2732,25 @@
         <v>14</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="L26" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="N26" s="15" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="P26" s="15">
         <v>1</v>
@@ -2762,7 +2765,7 @@
         <v>47</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>193</v>
+        <v>279</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>1</v>
@@ -2786,16 +2789,16 @@
         <v>48</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="N27" s="15" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="O27" s="16" t="s">
         <v>26</v>
@@ -2804,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="16" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="R27" s="3">
         <v>47</v>
@@ -2815,7 +2818,7 @@
         <v>52</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>1</v>
@@ -2830,7 +2833,7 @@
         <v>31</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>26</v>
@@ -2842,13 +2845,13 @@
         <v>15</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="N28" s="15" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="O28" s="15" t="s">
         <v>26</v>
@@ -2869,7 +2872,7 @@
         <v>43205</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>121</v>
+        <v>281</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>11</v>
@@ -2878,40 +2881,40 @@
         <v>83</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G29" s="19" t="s">
         <v>31</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>33</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>187</v>
+        <v>149</v>
       </c>
       <c r="N29" s="15" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="O29" s="16" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="P29" s="16">
         <v>0</v>
       </c>
       <c r="Q29" s="16" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="R29" s="3">
         <v>54</v>
@@ -2925,7 +2928,7 @@
         <v>43204</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>126</v>
+        <v>242</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>11</v>
@@ -2934,34 +2937,34 @@
         <v>72</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="N30" s="16" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="O30" s="15" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="P30" s="15">
         <v>1</v>
@@ -2979,7 +2982,7 @@
         <v>43203</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>125</v>
+        <v>243</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>11</v>
@@ -2988,34 +2991,34 @@
         <v>72</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="K31" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L31" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="L31" s="4" t="s">
-        <v>161</v>
-      </c>
       <c r="M31" s="3" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="N31" s="16" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="O31" s="15" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="P31" s="15">
         <v>1</v>
@@ -3033,7 +3036,7 @@
         <v>43202</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>136</v>
+        <v>263</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>11</v>
@@ -3042,34 +3045,34 @@
         <v>81</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>197</v>
+        <v>158</v>
       </c>
       <c r="N32" s="15" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="O32" s="15" t="s">
-        <v>196</v>
+        <v>157</v>
       </c>
       <c r="P32" s="15">
         <v>1</v>
@@ -3087,7 +3090,7 @@
         <v>43202</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>132</v>
+        <v>262</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>11</v>
@@ -3096,10 +3099,10 @@
         <v>71</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>14</v>
@@ -3108,22 +3111,22 @@
         <v>47</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="N33" s="16" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="O33" s="15" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="P33" s="15">
         <v>1</v>
@@ -3141,7 +3144,7 @@
         <v>43200</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>133</v>
+        <v>261</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>1</v>
@@ -3150,7 +3153,7 @@
         <v>90</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G34" s="19" t="s">
         <v>31</v>
@@ -3159,25 +3162,25 @@
         <v>14</v>
       </c>
       <c r="I34" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="M34" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="J34" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="N34" s="15" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="O34" s="15" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="P34" s="15">
         <v>1</v>
@@ -3195,7 +3198,7 @@
         <v>43189</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>137</v>
+        <v>260</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>1</v>
@@ -3204,13 +3207,13 @@
         <v>80</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>47</v>
@@ -3219,19 +3222,19 @@
         <v>50</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="L35" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="N35" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="O35" s="15" t="s">
         <v>161</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="N35" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="O35" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="P35" s="15">
         <v>1</v>
@@ -3249,7 +3252,7 @@
         <v>43220</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>138</v>
+        <v>259</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>1</v>
@@ -3270,22 +3273,22 @@
         <v>47</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="N36" s="15" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="O36" s="15" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="P36" s="15">
         <v>1</v>
@@ -3300,7 +3303,7 @@
         <v>74</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>142</v>
+        <v>258</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>11</v>
@@ -3318,31 +3321,31 @@
         <v>14</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="K37" s="4" t="s">
         <v>23</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="N37" s="15" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="O37" s="16" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="P37" s="16">
         <v>0</v>
       </c>
       <c r="Q37" s="16" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="R37" s="3">
         <v>74</v>
@@ -3356,7 +3359,7 @@
         <v>43171</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>145</v>
+        <v>257</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>1</v>
@@ -3371,28 +3374,28 @@
         <v>31</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>47</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="N38" s="15" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="O38" s="15" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="P38" s="15">
         <v>1</v>
@@ -3410,7 +3413,7 @@
         <v>43167</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>147</v>
+        <v>256</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>11</v>
@@ -3437,16 +3440,16 @@
         <v>23</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="N39" s="15" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="O39" s="15" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="P39" s="15">
         <v>1</v>
@@ -3464,7 +3467,7 @@
         <v>43166</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>148</v>
+        <v>255</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>1</v>
@@ -3488,19 +3491,19 @@
         <v>26</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="N40" s="15" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="O40" s="17" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="P40" s="17">
         <v>1</v>
@@ -3518,7 +3521,7 @@
         <v>43193</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>150</v>
+        <v>254</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>11</v>
@@ -3536,7 +3539,7 @@
         <v>14</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="J41" s="4" t="s">
         <v>26</v>
@@ -3545,13 +3548,13 @@
         <v>23</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="N41" s="15" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="O41" s="15" t="s">
         <v>26</v>
@@ -3572,7 +3575,7 @@
         <v>43189</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>155</v>
+        <v>253</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>11</v>
@@ -3584,7 +3587,7 @@
         <v>5</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>14</v>
@@ -3593,22 +3596,22 @@
         <v>47</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="N42" s="16" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="O42" s="15" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
       <c r="P42" s="15">
         <v>1</v>
@@ -3626,7 +3629,7 @@
         <v>43189</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>152</v>
+        <v>252</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>11</v>
@@ -3641,10 +3644,10 @@
         <v>31</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>26</v>
@@ -3653,22 +3656,22 @@
         <v>15</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="N43" s="16" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="O43" s="16" t="s">
-        <v>207</v>
+        <v>168</v>
       </c>
       <c r="P43" s="16">
         <v>0</v>
       </c>
       <c r="Q43" s="16" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="R43" s="3">
         <v>87</v>
@@ -3682,7 +3685,7 @@
         <v>43180</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>156</v>
+        <v>251</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>11</v>
@@ -3694,31 +3697,31 @@
         <v>5</v>
       </c>
       <c r="G44" s="19" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>47</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="N44" s="15" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="O44" s="15" t="s">
-        <v>208</v>
+        <v>169</v>
       </c>
       <c r="P44" s="15">
         <v>1</v>
@@ -3747,10 +3750,10 @@
         <v>96</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="20"/>
@@ -3758,11 +3761,11 @@
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="K46" s="6" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="L46" s="6"/>
       <c r="N46" s="5" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="O46" s="9"/>
       <c r="P46" s="9"/>
@@ -3773,7 +3776,7 @@
         <v>97</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
@@ -3782,14 +3785,14 @@
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="K47" s="6" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="L47" s="6"/>
       <c r="N47" s="7" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="O47" s="11" t="s">
-        <v>209</v>
+        <v>170</v>
       </c>
       <c r="P47" s="23"/>
       <c r="Q47" s="23"/>
@@ -3801,7 +3804,7 @@
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="6" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="20"/>
@@ -3809,14 +3812,14 @@
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
       <c r="K48" s="6" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="L48" s="6"/>
       <c r="N48" s="7" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="O48" s="12" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="P48" s="29"/>
       <c r="Q48" s="29"/>
@@ -3827,17 +3830,17 @@
         <v>99</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
@@ -3845,7 +3848,7 @@
       <c r="L49" s="6"/>
       <c r="N49" s="7"/>
       <c r="O49" s="12" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="P49" s="29"/>
       <c r="Q49" s="29"/>
@@ -3858,13 +3861,13 @@
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="G50" s="20" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
@@ -3872,7 +3875,7 @@
       <c r="L50" s="6"/>
       <c r="N50" s="7"/>
       <c r="O50" s="13" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="P50" s="30"/>
       <c r="Q50" s="30"/>
@@ -3885,10 +3888,10 @@
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="22" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="G51" s="27" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
       <c r="H51" s="22"/>
       <c r="I51" s="22"/>
@@ -3916,7 +3919,7 @@
     <row r="53" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="28" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="1"/>
@@ -3932,7 +3935,7 @@
     <row r="54" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="1"/>
@@ -3962,10 +3965,10 @@
     <row r="56" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -3980,7 +3983,7 @@
     <row r="57" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="23" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="C57" s="23"/>
       <c r="D57" s="1"/>
@@ -3996,10 +3999,10 @@
     <row r="58" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="2" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -4014,10 +4017,10 @@
     <row r="59" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="2" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -4046,7 +4049,7 @@
     <row r="61" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="23" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="C61" s="23"/>
       <c r="D61" s="1"/>
@@ -4062,10 +4065,10 @@
     <row r="62" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="2" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -4080,10 +4083,10 @@
     <row r="63" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="2" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -4098,10 +4101,10 @@
     <row r="64" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="2" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -4130,7 +4133,7 @@
     <row r="66" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="23" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="C66" s="23"/>
       <c r="D66" s="1"/>
@@ -4146,10 +4149,10 @@
     <row r="67" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="2" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -4164,10 +4167,10 @@
     <row r="68" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="2" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -4182,10 +4185,10 @@
     <row r="69" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="2" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -4214,7 +4217,7 @@
     <row r="71" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="23" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="C71" s="23"/>
       <c r="D71" s="1"/>
@@ -4230,10 +4233,10 @@
     <row r="72" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="2" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="1"/>
@@ -4249,10 +4252,10 @@
     <row r="73" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="1"/>
@@ -4268,10 +4271,10 @@
     <row r="74" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="2" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="1"/>
@@ -4302,7 +4305,7 @@
     <row r="76" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="23" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="C76" s="23"/>
       <c r="D76" s="1"/>
@@ -4318,10 +4321,10 @@
     <row r="77" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="2" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -4336,10 +4339,10 @@
     <row r="78" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -4354,10 +4357,10 @@
     <row r="79" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" s="2" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -4386,7 +4389,7 @@
     <row r="81" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="23" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="C81" s="25"/>
       <c r="D81" s="1"/>
@@ -4402,10 +4405,10 @@
     <row r="82" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="2" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -4420,10 +4423,10 @@
     <row r="83" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="2" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -4437,7 +4440,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B84" s="2" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="C84" s="24">
         <v>9</v>
@@ -4445,7 +4448,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B85" s="2" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="C85" s="24">
         <v>4</v>
@@ -4453,23 +4456,23 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B87" s="2" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B88" s="2" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C96" s="2" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
     </row>
     <row r="110" spans="3:11" x14ac:dyDescent="0.3">
